--- a/biology/Mycologie/Rubroboletus/Rubroboletus.xlsx
+++ b/biology/Mycologie/Rubroboletus/Rubroboletus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubroboletus est un genre de champignons (Fungi) basidiomycètes de la famille des Boletaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre de gros bolets rouges a été séparé du genre Boletus en 2014, dans le nouveau genre Rubroboletus — le latin rubro faisant référence à la rougeur du pied et des tubes — à la suite de nombreuses études phylogénétiques effectuées sur le genre Boletus s.l.
 Il contient notamment le célèbre Bolet satan, gros bolet toxique européen. 
@@ -543,7 +557,9 @@
           <t>Liste des espèces présentes en France métropolitaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rubroboletus demonensis Vasquez, Simonini, Svetash., Mikšík &amp; Vizzini 2017
 Rubroboletus dupainii (Boud.) Kuan Zhao &amp; Zhu L. Yang 2014
@@ -580,9 +596,11 @@
           <t>Liste des espèces mondiales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (11 octobre 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (11 octobre 2021) :
 Rubroboletus demonensis Vasquez, Simonini, Svetash., Mikšík &amp; Vizzini 2017
 Rubroboletus dupainii (Boud.) Kuan Zhao &amp; Zhu L. Yang 2014
 Rubroboletus eastwoodiae (Murrill) Vasquez, Simonini, Svetash., Mikšík &amp; Vizzini 2017
